--- a/public/assets/docs/Horas.xlsx
+++ b/public/assets/docs/Horas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSI PROGRAMMER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\gematechReports\public\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EDCEC-C907-4556-8379-5C8849B7A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F3908-955C-4EAD-AF0F-798C4589DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A794ECA4-F337-4262-802D-1BF59311240D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A794ECA4-F337-4262-802D-1BF59311240D}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE DE HORAS EXTRAS" sheetId="4" r:id="rId1"/>
@@ -23,34 +23,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FECHA</t>
-  </si>
-  <si>
-    <t>Horas sabados</t>
-  </si>
-  <si>
-    <t>Hora Descanso</t>
-  </si>
-  <si>
-    <t>Horas de lunes a viernes</t>
-  </si>
-  <si>
-    <t>REGISTROS NUEVOS</t>
   </si>
   <si>
     <t>GENERAL SERVICES INTERNATIONAL GROUP S.A.S.</t>
@@ -92,7 +72,7 @@
     <t xml:space="preserve">NÚMERO TOTAL DE HORAS </t>
   </si>
   <si>
-    <t>VB</t>
+    <t>NOMBRE DE QUIEN APRUEBA</t>
   </si>
 </sst>
 </file>
@@ -398,7 +378,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -443,6 +423,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -487,101 +535,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -590,11 +543,8 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -603,21 +553,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -648,23 +588,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF156300-F475-46DF-95AE-CA8CC3E255FD}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,107 +988,80 @@
     <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="D1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="H2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="44"/>
+      <c r="D3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G1" s="2">
-        <f>(F1-E1)</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="44"/>
+      <c r="D4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="J1" s="1">
-        <f>I1*24</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="8"/>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="J2" s="1">
-        <f>I2*24</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="44"/>
+      <c r="D5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="20"/>
-      <c r="D4" s="26" t="s">
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="44"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
-      <c r="D5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
@@ -1177,694 +1073,694 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="C8" s="67" t="s">
+    <row r="8" spans="1:13" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="J8" s="43" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>18</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="39"/>
+      <c r="C9"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="16"/>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="58"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="44"/>
+      <c r="C10"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="60"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="44"/>
+      <c r="C11"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="58"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="44"/>
+      <c r="C12"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="58"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="44"/>
+      <c r="C13"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="58"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="44"/>
+      <c r="C14"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="61"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="44"/>
+      <c r="C15"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="58"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="44"/>
+      <c r="C16"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="61"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="44"/>
+      <c r="C17"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="58"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="44"/>
+      <c r="C18"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="61"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="44"/>
+      <c r="C19"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="61"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="44"/>
+      <c r="C20"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="61"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="44"/>
+      <c r="C21"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="58"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="44"/>
+      <c r="C22"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="61"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="44"/>
+      <c r="C23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="61"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="44"/>
+      <c r="C24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="58"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="44"/>
+      <c r="C25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="61"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="44"/>
+      <c r="C26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="61"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="44"/>
+      <c r="C27"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="61"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="44"/>
+      <c r="C28"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="56"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="44"/>
+      <c r="C29"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="56"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="44"/>
+      <c r="C30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="56"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="44"/>
+      <c r="C31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="28"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="62"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="44"/>
+      <c r="C32"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="3:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="63"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="44"/>
+      <c r="C33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="19"/>
     </row>
     <row r="34" spans="3:13" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="64"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="44"/>
+      <c r="C34"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="28"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="19"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="62"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="44"/>
+      <c r="C35"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="62"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="44"/>
+      <c r="C36"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="28"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="3:13" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="64"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="44"/>
+      <c r="C37"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="28"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="19"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="56"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="44"/>
+      <c r="C38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="56"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="44"/>
+      <c r="C39"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="62"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="44"/>
+      <c r="C40"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="28"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="3:13" s="13" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="63"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="44"/>
+      <c r="C41"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="28"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="19"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="56"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="44"/>
+      <c r="C42"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="28"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="56"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="44"/>
+      <c r="C43"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="28"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="56"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="44"/>
+      <c r="C44"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="28"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="56"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="44"/>
+      <c r="C45"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="56"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="44"/>
+      <c r="C46"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="28"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="56"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="44"/>
+      <c r="C47"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="28"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
       <c r="M47" s="18"/>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C48" s="56"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="44"/>
+      <c r="C48"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="18"/>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C49" s="56"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="44"/>
+      <c r="C49"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="28"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C50" s="56"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="44"/>
+      <c r="C50"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="28"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C51" s="56"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="44"/>
+      <c r="C51"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="28"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C52" s="56"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="44"/>
+      <c r="C52"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="28"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C53" s="56"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="44"/>
+      <c r="C53"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="28"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C54" s="56"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="44"/>
+      <c r="C54"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
       <c r="M54" s="18"/>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C55" s="56"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="44"/>
+      <c r="C55"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="28"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C56" s="56"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="44"/>
+      <c r="C56"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="28"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
       <c r="M56" s="18"/>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C57" s="56"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="44"/>
+      <c r="C57"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="28"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C58" s="56"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="57"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C59" s="65"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
@@ -1880,54 +1776,36 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15 C17 C19:C42 C9:C13">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="C9:C42">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C57">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="domingo,">
+      <formula>NOT(ISERROR(SEARCH("domingo,",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C58">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="domingo">
+      <formula>NOT(ISERROR(SEARCH("domingo",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C57">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>$B$14</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C43:C58">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="sábado">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="sábado">
       <formula>NOT(ISERROR(SEARCH("sábado",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="domingo">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="domingo">
       <formula>NOT(ISERROR(SEARCH("domingo",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C57">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>$B$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C17 C19:C58 C9:C13">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="domingo">
-      <formula>NOT(ISERROR(SEARCH("domingo",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C17 C19:C57 C9:C13">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="domingo,">
-      <formula>NOT(ISERROR(SEARCH("domingo,",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>$B$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="domingo">
-      <formula>NOT(ISERROR(SEARCH("domingo",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="domingo,">
-      <formula>NOT(ISERROR(SEARCH("domingo,",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A725FC9-D182-4591-AB97-F8B20BF8B19C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>